--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed4/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.964</v>
+        <v>6.839000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.519999999999999</v>
+        <v>6.947</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>13.038</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.546000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.214</v>
+        <v>12.754</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.312</v>
+        <v>-7.105</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.188</v>
+        <v>-21.393</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.406000000000001</v>
+        <v>-7.917999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>12.542</v>
+        <v>12.341</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>6.128</v>
+        <v>6.87</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>12.852</v>
+        <v>12.045</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.93</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.372</v>
+        <v>-21.832</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.22</v>
+        <v>-20.945</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.078</v>
+        <v>-21.682</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.078</v>
+        <v>-21.661</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,16 +788,16 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>7.279999999999999</v>
+        <v>7.209999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.681999999999999</v>
+        <v>-7.526999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>12.77</v>
+        <v>12.261</v>
       </c>
     </row>
     <row r="22">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.384</v>
+        <v>12.498</v>
       </c>
     </row>
   </sheetData>
